--- a/src/test/resources/testData.xlsx
+++ b/src/test/resources/testData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>city</t>
   </si>
@@ -25,10 +25,13 @@
     <t>Dubai</t>
   </si>
   <si>
-    <t>xxx</t>
-  </si>
-  <si>
     <t>London</t>
+  </si>
+  <si>
+    <t>Jumeirah Beach Hotel</t>
+  </si>
+  <si>
+    <t>Grand Plaza Apartments</t>
   </si>
 </sst>
 </file>
@@ -373,12 +376,12 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -394,15 +397,15 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
